--- a/dashboard/Dashboard.xlsx
+++ b/dashboard/Dashboard.xlsx
@@ -500,37 +500,37 @@
         <v>1959</v>
       </c>
       <c r="B2" t="n">
-        <v>3.285089589726697</v>
+        <v>3.285089602034819</v>
       </c>
       <c r="C2" t="n">
-        <v>7.917333575563769</v>
+        <v>7.917334130028067</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1515240078130952</v>
+        <v>-0.1515240207983281</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.883540341807358</v>
+        <v>-1.883541074408478</v>
       </c>
       <c r="F2" t="n">
-        <v>9.167358815670013</v>
+        <v>9.167358636856079</v>
       </c>
       <c r="G2" t="n">
-        <v>3.268607284596178</v>
+        <v>3.268605817972827</v>
       </c>
       <c r="H2" t="n">
-        <v>7.877609877244966</v>
+        <v>7.877606864730589</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1507637652494876</v>
+        <v>-0.1507637099570356</v>
       </c>
       <c r="J2" t="n">
-        <v>3.881856388353055</v>
+        <v>3.881854644633171</v>
       </c>
       <c r="K2" t="n">
-        <v>-6.80400656228846</v>
+        <v>-6.804023282906895</v>
       </c>
       <c r="L2" t="n">
-        <v>8.07330322265625</v>
+        <v>8.073280334472656</v>
       </c>
     </row>
     <row r="3">
@@ -538,37 +538,37 @@
         <v>1960</v>
       </c>
       <c r="B3" t="n">
-        <v>6.527665142616208</v>
+        <v>6.527665186234775</v>
       </c>
       <c r="C3" t="n">
-        <v>15.27822125418597</v>
+        <v>15.27822146044315</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2907253787696981</v>
+        <v>-0.2907253777404554</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.494333605427194</v>
+        <v>-3.494334094750768</v>
       </c>
       <c r="F3" t="n">
-        <v>18.02082741260529</v>
+        <v>18.02082717418671</v>
       </c>
       <c r="G3" t="n">
-        <v>6.466614902938057</v>
+        <v>6.466613145094914</v>
       </c>
       <c r="H3" t="n">
-        <v>15.13533110142148</v>
+        <v>15.13532709032229</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2880063584666288</v>
+        <v>-0.2880062772327209</v>
       </c>
       <c r="J3" t="n">
-        <v>1.82433857011958</v>
+        <v>1.824338067268866</v>
       </c>
       <c r="K3" t="n">
-        <v>-7.253070086129674</v>
+        <v>-7.253052451478743</v>
       </c>
       <c r="L3" t="n">
-        <v>15.88520812988281</v>
+        <v>15.88521957397461</v>
       </c>
     </row>
     <row r="4">
@@ -576,37 +576,37 @@
         <v>1961</v>
       </c>
       <c r="B4" t="n">
-        <v>9.700115708522628</v>
+        <v>9.700115704078197</v>
       </c>
       <c r="C4" t="n">
-        <v>22.11945623784456</v>
+        <v>22.11945671823175</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4128944739495893</v>
+        <v>-0.4128944789698709</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.848520803277733</v>
+        <v>-4.848521512618788</v>
       </c>
       <c r="F4" t="n">
-        <v>26.55815666913986</v>
+        <v>26.55815643072128</v>
       </c>
       <c r="G4" t="n">
-        <v>9.575565174314939</v>
+        <v>9.575562261077399</v>
       </c>
       <c r="H4" t="n">
-        <v>21.83544002880217</v>
+        <v>21.83543386988525</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4075928642732594</v>
+        <v>-0.4075927454111571</v>
       </c>
       <c r="J4" t="n">
-        <v>-5.806086921853121</v>
+        <v>-5.806085174400113</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.729864784666508</v>
+        <v>-1.72985376412989</v>
       </c>
       <c r="L4" t="n">
-        <v>23.46746063232422</v>
+        <v>23.46746444702148</v>
       </c>
     </row>
     <row r="5">
@@ -614,37 +614,37 @@
         <v>1962</v>
       </c>
       <c r="B5" t="n">
-        <v>12.78120558623636</v>
+        <v>12.78120562314292</v>
       </c>
       <c r="C5" t="n">
-        <v>28.47129925499688</v>
+        <v>28.47129976646844</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5136931372627452</v>
+        <v>-0.5136931427893682</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.960994335463104</v>
+        <v>-5.960995057128535</v>
       </c>
       <c r="F5" t="n">
-        <v>34.77781736850739</v>
+        <v>34.77781718969345</v>
       </c>
       <c r="G5" t="n">
-        <v>12.58277725562216</v>
+        <v>12.58277396107796</v>
       </c>
       <c r="H5" t="n">
-        <v>28.02928208036742</v>
+        <v>28.0292751640647</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5057180467294402</v>
+        <v>-0.505717918297987</v>
       </c>
       <c r="J5" t="n">
-        <v>-9.473516492020927</v>
+        <v>-9.47351401248738</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2149077467061016</v>
+        <v>0.2149267936798189</v>
       </c>
       <c r="L5" t="n">
-        <v>30.84773254394531</v>
+        <v>30.84774398803711</v>
       </c>
     </row>
     <row r="6">
@@ -652,34 +652,34 @@
         <v>1963</v>
       </c>
       <c r="B6" t="n">
-        <v>15.75457001144973</v>
+        <v>15.75456999817523</v>
       </c>
       <c r="C6" t="n">
-        <v>34.35976712425025</v>
+        <v>34.35976777726393</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.589114392502195</v>
+        <v>-0.5891144045347485</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.846222305938113</v>
+        <v>-6.846223112458672</v>
       </c>
       <c r="F6" t="n">
-        <v>42.67900043725967</v>
+        <v>42.67900025844574</v>
       </c>
       <c r="G6" t="n">
-        <v>15.4796783129725</v>
+        <v>15.47967360269747</v>
       </c>
       <c r="H6" t="n">
-        <v>33.76024490706483</v>
+        <v>33.76023530430425</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5788353016838091</v>
+        <v>-0.5788351378616891</v>
       </c>
       <c r="J6" t="n">
-        <v>-9.423096532565259</v>
+        <v>-9.423093700670007</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.188041739792167</v>
+        <v>-1.188030422473931</v>
       </c>
       <c r="L6" t="n">
         <v>38.04994964599609</v>
@@ -690,37 +690,37 @@
         <v>1964</v>
       </c>
       <c r="B7" t="n">
-        <v>18.60765189109595</v>
+        <v>18.60765196163663</v>
       </c>
       <c r="C7" t="n">
-        <v>39.80805953410769</v>
+        <v>39.80806000792268</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6354564433106036</v>
+        <v>-0.6354564477899175</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.518637559789163</v>
+        <v>-7.518638040060871</v>
       </c>
       <c r="F7" t="n">
-        <v>50.26161742210388</v>
+        <v>50.26161748170853</v>
       </c>
       <c r="G7" t="n">
-        <v>18.26062739650845</v>
+        <v>18.26062151919307</v>
       </c>
       <c r="H7" t="n">
-        <v>39.06565679456893</v>
+        <v>39.06564453788645</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6236054611252716</v>
+        <v>-0.6236052624450498</v>
       </c>
       <c r="J7" t="n">
-        <v>-4.851235475057074</v>
+        <v>-4.85123391332626</v>
       </c>
       <c r="K7" t="n">
-        <v>-6.756995165295422</v>
+        <v>-6.756986421103138</v>
       </c>
       <c r="L7" t="n">
-        <v>45.09444808959961</v>
+        <v>45.09444046020508</v>
       </c>
     </row>
     <row r="8">
@@ -728,34 +728,34 @@
         <v>1965</v>
       </c>
       <c r="B8" t="n">
-        <v>21.33093031941356</v>
+        <v>21.33093039497109</v>
       </c>
       <c r="C8" t="n">
-        <v>44.83747991657093</v>
+        <v>44.83748005558738</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6493055392363891</v>
+        <v>-0.6493055436320687</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.992804862496705</v>
+        <v>-7.992805072675001</v>
       </c>
       <c r="F8" t="n">
         <v>57.5262998342514</v>
       </c>
       <c r="G8" t="n">
-        <v>20.92208559628607</v>
+        <v>20.92207959334732</v>
       </c>
       <c r="H8" t="n">
-        <v>43.97809090785335</v>
+        <v>43.97807827028888</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6368604588090885</v>
+        <v>-0.6368602781374464</v>
       </c>
       <c r="J8" t="n">
-        <v>-4.867065177023756</v>
+        <v>-4.867063780028579</v>
       </c>
       <c r="K8" t="n">
-        <v>-7.397963667378841</v>
+        <v>-7.397946604542438</v>
       </c>
       <c r="L8" t="n">
         <v>51.99828720092773</v>
@@ -766,37 +766,37 @@
         <v>1966</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9173478862259</v>
+        <v>23.91734791303237</v>
       </c>
       <c r="C9" t="n">
-        <v>49.46805008299789</v>
+        <v>49.4680503202916</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6275245697092844</v>
+        <v>-0.6275245780002486</v>
       </c>
       <c r="E9" t="n">
-        <v>-8.283473415631612</v>
+        <v>-8.283473909859403</v>
       </c>
       <c r="F9" t="n">
-        <v>64.4743999838829</v>
+        <v>64.47439974546432</v>
       </c>
       <c r="G9" t="n">
-        <v>23.46200814081557</v>
+        <v>23.46200398330052</v>
       </c>
       <c r="H9" t="n">
-        <v>48.52627470564889</v>
+        <v>48.52626628508338</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6155777234632293</v>
+        <v>-0.6155776218248</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.151647712963453</v>
+        <v>-1.15164751054997</v>
       </c>
       <c r="K9" t="n">
-        <v>-11.44570493201044</v>
+        <v>-11.44566214040367</v>
       </c>
       <c r="L9" t="n">
-        <v>58.77535247802734</v>
+        <v>58.77538299560547</v>
       </c>
     </row>
     <row r="10">
@@ -804,37 +804,37 @@
         <v>1967</v>
       </c>
       <c r="B10" t="n">
-        <v>26.36187690686668</v>
+        <v>26.36187696011269</v>
       </c>
       <c r="C10" t="n">
-        <v>53.71893211224084</v>
+        <v>53.71893240821858</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5672451271150242</v>
+        <v>-0.567245135815248</v>
       </c>
       <c r="E10" t="n">
-        <v>-8.405574163541715</v>
+        <v>-8.405574504065253</v>
       </c>
       <c r="F10" t="n">
         <v>71.10798972845078</v>
       </c>
       <c r="G10" t="n">
-        <v>25.87943278348967</v>
+        <v>25.87942495302154</v>
       </c>
       <c r="H10" t="n">
-        <v>52.73583128056641</v>
+        <v>52.73581550806944</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5568640727212982</v>
+        <v>-0.5568639116444184</v>
       </c>
       <c r="J10" t="n">
-        <v>-2.706552080547493</v>
+        <v>-2.706551265080237</v>
       </c>
       <c r="K10" t="n">
-        <v>-9.915007853414238</v>
+        <v>-9.914992856387823</v>
       </c>
       <c r="L10" t="n">
-        <v>65.43684005737305</v>
+        <v>65.43683242797852</v>
       </c>
     </row>
     <row r="11">
@@ -842,37 +842,37 @@
         <v>1968</v>
       </c>
       <c r="B11" t="n">
-        <v>28.66118522427448</v>
+        <v>28.661185301204</v>
       </c>
       <c r="C11" t="n">
-        <v>57.60871884509036</v>
+        <v>57.60871911498486</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4658616566786193</v>
+        <v>-0.4658616717760711</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.374180390286323</v>
+        <v>-8.374180960431463</v>
       </c>
       <c r="F11" t="n">
-        <v>77.4298620223999</v>
+        <v>77.42986178398132</v>
       </c>
       <c r="G11" t="n">
-        <v>28.17413997763602</v>
+        <v>28.17413512219981</v>
       </c>
       <c r="H11" t="n">
-        <v>56.62976237630243</v>
+        <v>56.62975273022837</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4579451764737369</v>
+        <v>-0.4579451111647346</v>
       </c>
       <c r="J11" t="n">
-        <v>-11.1067250726676</v>
+        <v>-11.10672315650297</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.248127978820547</v>
+        <v>-1.248084941205782</v>
       </c>
       <c r="L11" t="n">
-        <v>71.99110412597656</v>
+        <v>71.99113464355469</v>
       </c>
     </row>
     <row r="12">
@@ -880,37 +880,37 @@
         <v>1969</v>
       </c>
       <c r="B12" t="n">
-        <v>30.81337381365908</v>
+        <v>30.81337391062088</v>
       </c>
       <c r="C12" t="n">
-        <v>61.15563855919169</v>
+        <v>61.15563911820845</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3210266219853034</v>
+        <v>-0.321026627735319</v>
       </c>
       <c r="E12" t="n">
-        <v>-8.204456741046446</v>
+        <v>-8.204457391274978</v>
       </c>
       <c r="F12" t="n">
         <v>83.44352900981903</v>
       </c>
       <c r="G12" t="n">
-        <v>30.34646838321208</v>
+        <v>30.34646065944993</v>
       </c>
       <c r="H12" t="n">
-        <v>60.22896626688065</v>
+        <v>60.22895129846671</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3161622058382942</v>
+        <v>-0.3161621300369128</v>
       </c>
       <c r="J12" t="n">
-        <v>-15.02193218941645</v>
+        <v>-15.02192836680372</v>
       </c>
       <c r="K12" t="n">
-        <v>3.20697279447843</v>
+        <v>3.206995402937668</v>
       </c>
       <c r="L12" t="n">
-        <v>78.44431304931641</v>
+        <v>78.44431686401367</v>
       </c>
     </row>
     <row r="13">
@@ -918,37 +918,37 @@
         <v>1970</v>
       </c>
       <c r="B13" t="n">
-        <v>32.81776820229656</v>
+        <v>32.8177682505291</v>
       </c>
       <c r="C13" t="n">
-        <v>64.37769946729797</v>
+        <v>64.37770022566053</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1306460758431862</v>
+        <v>-0.1306460881711631</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.911596827496915</v>
+        <v>-7.911597860182624</v>
       </c>
       <c r="F13" t="n">
-        <v>89.15322476625443</v>
+        <v>89.15322452783585</v>
       </c>
       <c r="G13" t="n">
-        <v>32.39712616181473</v>
+        <v>32.39712288052662</v>
       </c>
       <c r="H13" t="n">
-        <v>63.55253772264421</v>
+        <v>63.55253194107143</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1289715185855182</v>
+        <v>-0.1289715175032674</v>
       </c>
       <c r="J13" t="n">
-        <v>-8.130429253557205</v>
+        <v>-8.130428438008538</v>
       </c>
       <c r="K13" t="n">
-        <v>-2.889985402355284</v>
+        <v>-2.889923750363584</v>
       </c>
       <c r="L13" t="n">
-        <v>84.80027770996094</v>
+        <v>84.80033111572266</v>
       </c>
     </row>
     <row r="14">
@@ -956,37 +956,37 @@
         <v>1971</v>
       </c>
       <c r="B14" t="n">
-        <v>34.6747493852001</v>
+        <v>34.67474942980649</v>
       </c>
       <c r="C14" t="n">
-        <v>67.29278654184215</v>
+        <v>67.29278696466811</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1071249848437823</v>
+        <v>0.10712497291929</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.510759189454845</v>
+        <v>-7.51075988338129</v>
       </c>
       <c r="F14" t="n">
-        <v>94.56390172243118</v>
+        <v>94.5639014840126</v>
       </c>
       <c r="G14" t="n">
-        <v>34.32712583492241</v>
+        <v>34.32711808824089</v>
       </c>
       <c r="H14" t="n">
-        <v>66.61815852634052</v>
+        <v>66.61814382535513</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1060510284860549</v>
+        <v>0.1060509926119053</v>
       </c>
       <c r="J14" t="n">
-        <v>-10.22041868662738</v>
+        <v>-10.22041639176817</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2301794882846444</v>
+        <v>0.2302111210582964</v>
       </c>
       <c r="L14" t="n">
-        <v>91.06109619140625</v>
+        <v>91.06110763549805</v>
       </c>
     </row>
     <row r="15">
@@ -994,37 +994,37 @@
         <v>1972</v>
       </c>
       <c r="B15" t="n">
-        <v>36.3856160611831</v>
+        <v>36.38561611743016</v>
       </c>
       <c r="C15" t="n">
-        <v>69.9187280404974</v>
+        <v>69.91872882210097</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3938879173339767</v>
+        <v>0.3938878985334373</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.016997659273258</v>
+        <v>-7.016998716741938</v>
       </c>
       <c r="F15" t="n">
-        <v>99.68123435974121</v>
+        <v>99.68123412132263</v>
       </c>
       <c r="G15" t="n">
-        <v>36.13767956899571</v>
+        <v>36.13767073350817</v>
       </c>
       <c r="H15" t="n">
-        <v>69.44229240341997</v>
+        <v>69.44227609404535</v>
       </c>
       <c r="I15" t="n">
-        <v>0.391203911973876</v>
+        <v>0.3912037970492434</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.709019677828298</v>
+        <v>-2.709019017803519</v>
       </c>
       <c r="K15" t="n">
-        <v>-6.035174089862043</v>
+        <v>-6.035145675402761</v>
       </c>
       <c r="L15" t="n">
-        <v>97.22698211669922</v>
+        <v>97.22698593139648</v>
       </c>
     </row>
     <row r="16">
@@ -1032,37 +1032,37 @@
         <v>1973</v>
       </c>
       <c r="B16" t="n">
-        <v>37.95246917470779</v>
+        <v>37.95246928329416</v>
       </c>
       <c r="C16" t="n">
-        <v>72.27333596157473</v>
+        <v>72.27333633473545</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7310064961529686</v>
+        <v>0.7310064983656882</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.445195760052371</v>
+        <v>-6.44519624401218</v>
       </c>
       <c r="F16" t="n">
         <v>104.5116158723831</v>
       </c>
       <c r="G16" t="n">
-        <v>37.83019332237346</v>
+        <v>37.8301846202422</v>
       </c>
       <c r="H16" t="n">
-        <v>72.04048460966227</v>
+        <v>72.04046820393312</v>
       </c>
       <c r="I16" t="n">
-        <v>0.728651328114558</v>
+        <v>0.7286511606227291</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.44180517774439</v>
+        <v>-1.441804846348282</v>
       </c>
       <c r="K16" t="n">
-        <v>-5.860694858773082</v>
+        <v>-5.860662285422423</v>
       </c>
       <c r="L16" t="n">
-        <v>103.2968292236328</v>
+        <v>103.2968368530273</v>
       </c>
     </row>
     <row r="17">
@@ -1070,37 +1070,37 @@
         <v>1974</v>
       </c>
       <c r="B17" t="n">
-        <v>39.37811591648713</v>
+        <v>39.37811600310791</v>
       </c>
       <c r="C17" t="n">
-        <v>74.37442665739427</v>
+        <v>74.37442699030404</v>
       </c>
       <c r="D17" t="n">
-        <v>1.119614283418739</v>
+        <v>1.119614288567631</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.809995054054589</v>
+        <v>-5.809995717152617</v>
       </c>
       <c r="F17" t="n">
-        <v>109.0621618032455</v>
+        <v>109.062161564827</v>
       </c>
       <c r="G17" t="n">
-        <v>39.40622500318553</v>
+        <v>39.40621604505978</v>
       </c>
       <c r="H17" t="n">
-        <v>74.42751698836619</v>
+        <v>74.42750023835912</v>
       </c>
       <c r="I17" t="n">
-        <v>1.120413492172864</v>
+        <v>1.120413240159834</v>
       </c>
       <c r="J17" t="n">
-        <v>2.594581529609554</v>
+        <v>2.59458094021905</v>
       </c>
       <c r="K17" t="n">
-        <v>-8.280537092679841</v>
+        <v>-8.280502913748951</v>
       </c>
       <c r="L17" t="n">
-        <v>109.2681999206543</v>
+        <v>109.2682075500488</v>
       </c>
     </row>
     <row r="18">
@@ -1108,37 +1108,37 @@
         <v>1975</v>
       </c>
       <c r="B18" t="n">
-        <v>40.66598646208161</v>
+        <v>40.66598657744478</v>
       </c>
       <c r="C18" t="n">
-        <v>76.23982484094809</v>
+        <v>76.23982522916832</v>
       </c>
       <c r="D18" t="n">
-        <v>1.560623083942938</v>
+        <v>1.560623080952718</v>
       </c>
       <c r="E18" t="n">
-        <v>-5.125729171041698</v>
+        <v>-5.125729671634879</v>
       </c>
       <c r="F18" t="n">
         <v>113.3407052159309</v>
       </c>
       <c r="G18" t="n">
-        <v>40.86750459450587</v>
+        <v>40.86749416530402</v>
       </c>
       <c r="H18" t="n">
-        <v>76.61762723687978</v>
+        <v>76.6176078572003</v>
       </c>
       <c r="I18" t="n">
-        <v>1.568356668608039</v>
+        <v>1.568356260916306</v>
       </c>
       <c r="J18" t="n">
-        <v>2.3340982807496</v>
+        <v>2.3340976854508</v>
       </c>
       <c r="K18" t="n">
-        <v>-6.249811359600706</v>
+        <v>-6.249784362426112</v>
       </c>
       <c r="L18" t="n">
-        <v>115.1377754211426</v>
+        <v>115.1377716064453</v>
       </c>
     </row>
     <row r="19">
@@ -1146,37 +1146,37 @@
         <v>1976</v>
       </c>
       <c r="B19" t="n">
-        <v>41.82006369806206</v>
+        <v>41.82006378335299</v>
       </c>
       <c r="C19" t="n">
-        <v>77.88735795456604</v>
+        <v>77.88735828771901</v>
       </c>
       <c r="D19" t="n">
-        <v>2.054732986683434</v>
+        <v>2.054732975758113</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.406352341719376</v>
+        <v>-4.40635304726117</v>
       </c>
       <c r="F19" t="n">
-        <v>117.3558022975922</v>
+        <v>117.3558019995689</v>
       </c>
       <c r="G19" t="n">
-        <v>42.21592290370524</v>
+        <v>42.21591727804422</v>
       </c>
       <c r="H19" t="n">
-        <v>78.62462195952186</v>
+        <v>78.62461165801959</v>
       </c>
       <c r="I19" t="n">
-        <v>2.074182621523541</v>
+        <v>2.074182329860603</v>
       </c>
       <c r="J19" t="n">
-        <v>4.878046471233227</v>
+        <v>4.878045821866816</v>
       </c>
       <c r="K19" t="n">
-        <v>-6.891376250905751</v>
+        <v>-6.891317421043186</v>
       </c>
       <c r="L19" t="n">
-        <v>120.9013977050781</v>
+        <v>120.901439666748</v>
       </c>
     </row>
     <row r="20">
@@ -1184,34 +1184,34 @@
         <v>1977</v>
       </c>
       <c r="B20" t="n">
-        <v>42.84482031128956</v>
+        <v>42.8448204642737</v>
       </c>
       <c r="C20" t="n">
-        <v>79.33483567952138</v>
+        <v>79.33483596007495</v>
       </c>
       <c r="D20" t="n">
-        <v>2.602443888905089</v>
+        <v>2.602443891359684</v>
       </c>
       <c r="E20" t="n">
-        <v>-3.665372765992267</v>
+        <v>-3.665373201984586</v>
       </c>
       <c r="F20" t="n">
         <v>121.1167271137238</v>
       </c>
       <c r="G20" t="n">
-        <v>43.45356893499627</v>
+        <v>43.45355855892589</v>
       </c>
       <c r="H20" t="n">
-        <v>80.4620424616019</v>
+        <v>80.46202324569214</v>
       </c>
       <c r="I20" t="n">
-        <v>2.639419983661343</v>
+        <v>2.639419346471849</v>
       </c>
       <c r="J20" t="n">
-        <v>6.546311277347238</v>
+        <v>6.546309710063785</v>
       </c>
       <c r="K20" t="n">
-        <v>-6.546842077772761</v>
+        <v>-6.546810281319683</v>
       </c>
       <c r="L20" t="n">
         <v>126.554500579834</v>
@@ -1222,37 +1222,37 @@
         <v>1978</v>
       </c>
       <c r="B21" t="n">
-        <v>43.74516469305438</v>
+        <v>43.7451648400376</v>
       </c>
       <c r="C21" t="n">
-        <v>80.60002339414352</v>
+        <v>80.60002379810857</v>
       </c>
       <c r="D21" t="n">
-        <v>3.204068572933717</v>
+        <v>3.204068579646182</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.91578082003992</v>
+        <v>-2.915781377700633</v>
       </c>
       <c r="F21" t="n">
         <v>124.6334758400917</v>
       </c>
       <c r="G21" t="n">
-        <v>44.58272495099982</v>
+        <v>44.58271694673825</v>
       </c>
       <c r="H21" t="n">
-        <v>82.14321969613675</v>
+        <v>82.14320508406509</v>
       </c>
       <c r="I21" t="n">
-        <v>3.265414793007436</v>
+        <v>3.265414202612949</v>
       </c>
       <c r="J21" t="n">
-        <v>15.83508237115742</v>
+        <v>15.83507952121636</v>
       </c>
       <c r="K21" t="n">
-        <v>-13.73433976052018</v>
+        <v>-13.73429081566781</v>
       </c>
       <c r="L21" t="n">
-        <v>132.0921020507812</v>
+        <v>132.0921249389648</v>
       </c>
     </row>
     <row r="22">
@@ -1260,37 +1260,37 @@
         <v>1979</v>
       </c>
       <c r="B22" t="n">
-        <v>44.52639147266762</v>
+        <v>44.52639162359761</v>
       </c>
       <c r="C22" t="n">
-        <v>81.70060840990136</v>
+        <v>81.70060922769527</v>
       </c>
       <c r="D22" t="n">
-        <v>3.859747490002989</v>
+        <v>3.859747493057857</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.169983530466105</v>
+        <v>-2.169984263826287</v>
       </c>
       <c r="F22" t="n">
-        <v>127.9167638421059</v>
+        <v>127.9167640805244</v>
       </c>
       <c r="G22" t="n">
-        <v>45.60591598733066</v>
+        <v>45.60590952664743</v>
       </c>
       <c r="H22" t="n">
-        <v>83.68140691443578</v>
+        <v>83.68139561382212</v>
       </c>
       <c r="I22" t="n">
-        <v>3.953325520875423</v>
+        <v>3.953324950562844</v>
       </c>
       <c r="J22" t="n">
-        <v>19.50495290602528</v>
+        <v>19.50495014513899</v>
       </c>
       <c r="K22" t="n">
-        <v>-15.2363277996144</v>
+        <v>-15.23626856014598</v>
       </c>
       <c r="L22" t="n">
-        <v>137.5092735290527</v>
+        <v>137.5093116760254</v>
       </c>
     </row>
     <row r="23">
@@ -1298,34 +1298,34 @@
         <v>1980</v>
       </c>
       <c r="B23" t="n">
-        <v>45.19413762102163</v>
+        <v>45.19413770510333</v>
       </c>
       <c r="C23" t="n">
-        <v>82.65415930531636</v>
+        <v>82.65415995816454</v>
       </c>
       <c r="D23" t="n">
-        <v>4.569465115906025</v>
+        <v>4.569465129012899</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.439734281261501</v>
+        <v>-1.439735031298255</v>
       </c>
       <c r="F23" t="n">
         <v>130.9780277609825</v>
       </c>
       <c r="G23" t="n">
-        <v>46.52592551370476</v>
+        <v>46.52591465649856</v>
       </c>
       <c r="H23" t="n">
-        <v>85.08982495659589</v>
+        <v>85.089805613968</v>
       </c>
       <c r="I23" t="n">
-        <v>4.704118826270682</v>
+        <v>4.704117733267288</v>
       </c>
       <c r="J23" t="n">
-        <v>12.92305612663846</v>
+        <v>12.92305312418554</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.441636818473446</v>
+        <v>-6.441602523183052</v>
       </c>
       <c r="L23" t="n">
         <v>142.8012886047363</v>
@@ -1336,37 +1336,37 @@
         <v>1981</v>
       </c>
       <c r="B24" t="n">
-        <v>45.75434227135548</v>
+        <v>45.75434244922185</v>
       </c>
       <c r="C24" t="n">
-        <v>83.47807918717066</v>
+        <v>83.47807971014626</v>
       </c>
       <c r="D24" t="n">
-        <v>5.333068000975798</v>
+        <v>5.333068018022075</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.7360663895480286</v>
+        <v>-0.7360671670409005</v>
       </c>
       <c r="F24" t="n">
-        <v>133.8294230699539</v>
+        <v>133.8294230103493</v>
       </c>
       <c r="G24" t="n">
-        <v>47.34580741366081</v>
+        <v>47.34579784018351</v>
       </c>
       <c r="H24" t="n">
-        <v>86.38168235526075</v>
+        <v>86.38166509396591</v>
       </c>
       <c r="I24" t="n">
-        <v>5.518567155892303</v>
+        <v>5.518566036206157</v>
       </c>
       <c r="J24" t="n">
-        <v>14.42049474061643</v>
+        <v>14.42049180795299</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.702810362940063</v>
+        <v>-5.702768031726528</v>
       </c>
       <c r="L24" t="n">
-        <v>147.9637413024902</v>
+        <v>147.963752746582</v>
       </c>
     </row>
     <row r="25">
@@ -1374,37 +1374,37 @@
         <v>1982</v>
       </c>
       <c r="B25" t="n">
-        <v>46.21321062375109</v>
+        <v>46.21321068860324</v>
       </c>
       <c r="C25" t="n">
-        <v>84.1895578111646</v>
+        <v>84.18955861796685</v>
       </c>
       <c r="D25" t="n">
-        <v>6.150284497462599</v>
+        <v>6.150284492024332</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0692255202498373</v>
+        <v>-0.06922686330312899</v>
       </c>
       <c r="F25" t="n">
-        <v>136.4838274121284</v>
+        <v>136.4838269352913</v>
       </c>
       <c r="G25" t="n">
-        <v>48.06893584694912</v>
+        <v>48.06892655295739</v>
       </c>
       <c r="H25" t="n">
-        <v>87.57025099069827</v>
+        <v>87.57023477555016</v>
       </c>
       <c r="I25" t="n">
-        <v>6.397253663156519</v>
+        <v>6.39725241163169</v>
       </c>
       <c r="J25" t="n">
-        <v>14.42730291122327</v>
+        <v>14.42730012586983</v>
       </c>
       <c r="K25" t="n">
-        <v>-3.470728122720528</v>
+        <v>-3.470683317913362</v>
       </c>
       <c r="L25" t="n">
-        <v>152.9930152893066</v>
+        <v>152.9930305480957</v>
       </c>
     </row>
     <row r="26">
@@ -1412,37 +1412,37 @@
         <v>1983</v>
       </c>
       <c r="B26" t="n">
-        <v>46.5771793046443</v>
+        <v>46.57717941543972</v>
       </c>
       <c r="C26" t="n">
-        <v>84.80552015959847</v>
+        <v>84.80552082329567</v>
       </c>
       <c r="D26" t="n">
-        <v>7.020745866477421</v>
+        <v>7.020745881076174</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5513907994220091</v>
+        <v>0.5513900103306497</v>
       </c>
       <c r="F26" t="n">
         <v>138.9548361301422</v>
       </c>
       <c r="G26" t="n">
-        <v>48.69900621303332</v>
+        <v>48.69900064488272</v>
       </c>
       <c r="H26" t="n">
-        <v>88.66884201250899</v>
+        <v>88.66883235729533</v>
       </c>
       <c r="I26" t="n">
-        <v>7.340576472771078</v>
+        <v>7.340575631266113</v>
       </c>
       <c r="J26" t="n">
-        <v>16.11289555837155</v>
+        <v>16.11289372354198</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.934982976411511</v>
+        <v>-2.934915485648265</v>
       </c>
       <c r="L26" t="n">
-        <v>157.8863372802734</v>
+        <v>157.8863868713379</v>
       </c>
     </row>
     <row r="27">
@@ -1450,37 +1450,37 @@
         <v>1984</v>
       </c>
       <c r="B27" t="n">
-        <v>46.85288629415884</v>
+        <v>46.85288643216089</v>
       </c>
       <c r="C27" t="n">
-        <v>85.34257125799654</v>
+        <v>85.34257178876562</v>
       </c>
       <c r="D27" t="n">
-        <v>7.944009270958287</v>
+        <v>7.944009300044913</v>
       </c>
       <c r="E27" t="n">
-        <v>1.117301284300588</v>
+        <v>1.117300526838179</v>
       </c>
       <c r="F27" t="n">
-        <v>141.2567681074142</v>
+        <v>141.2567680478096</v>
       </c>
       <c r="G27" t="n">
-        <v>49.24006492807237</v>
+        <v>49.24005765398604</v>
       </c>
       <c r="H27" t="n">
-        <v>89.69081912027883</v>
+        <v>89.69080616415823</v>
       </c>
       <c r="I27" t="n">
-        <v>8.348760625659924</v>
+        <v>8.348759398300578</v>
       </c>
       <c r="J27" t="n">
-        <v>17.74151519659493</v>
+        <v>17.74151257113342</v>
       </c>
       <c r="K27" t="n">
-        <v>-2.379054768067007</v>
+        <v>-2.378996352763828</v>
       </c>
       <c r="L27" t="n">
-        <v>162.6421051025391</v>
+        <v>162.6421394348145</v>
       </c>
     </row>
     <row r="28">
@@ -1488,37 +1488,37 @@
         <v>1985</v>
       </c>
       <c r="B28" t="n">
-        <v>47.04714126856729</v>
+        <v>47.04714140667754</v>
       </c>
       <c r="C28" t="n">
-        <v>85.81694367746461</v>
+        <v>85.81694433444378</v>
       </c>
       <c r="D28" t="n">
-        <v>8.919581842633105</v>
+        <v>8.919581853273817</v>
       </c>
       <c r="E28" t="n">
-        <v>1.620993019017028</v>
+        <v>1.620992153682252</v>
       </c>
       <c r="F28" t="n">
-        <v>143.404659807682</v>
+        <v>143.4046597480774</v>
       </c>
       <c r="G28" t="n">
-        <v>49.69652582987292</v>
+        <v>49.69651851286166</v>
       </c>
       <c r="H28" t="n">
-        <v>90.64958769253066</v>
+        <v>90.64957477370957</v>
       </c>
       <c r="I28" t="n">
-        <v>9.421873837215196</v>
+        <v>9.4218724335777</v>
       </c>
       <c r="J28" t="n">
-        <v>20.22820199674432</v>
+        <v>20.22819901327135</v>
       </c>
       <c r="K28" t="n">
-        <v>-2.736061335122862</v>
+        <v>-2.736002379904665</v>
       </c>
       <c r="L28" t="n">
-        <v>167.2601280212402</v>
+        <v>167.2601623535156</v>
       </c>
     </row>
     <row r="29">
@@ -1526,37 +1526,37 @@
         <v>1986</v>
       </c>
       <c r="B29" t="n">
-        <v>47.16689933881312</v>
+        <v>47.16689945684755</v>
       </c>
       <c r="C29" t="n">
-        <v>86.24444407367366</v>
+        <v>86.24444469652619</v>
       </c>
       <c r="D29" t="n">
-        <v>9.94694629445023</v>
+        <v>9.946946306156658</v>
       </c>
       <c r="E29" t="n">
-        <v>2.055979740389631</v>
+        <v>2.055978749377687</v>
       </c>
       <c r="F29" t="n">
-        <v>145.4142694473267</v>
+        <v>145.4142692089081</v>
       </c>
       <c r="G29" t="n">
-        <v>50.0731718515591</v>
+        <v>50.07316326014659</v>
       </c>
       <c r="H29" t="n">
-        <v>91.55854910711855</v>
+        <v>91.55853382986972</v>
       </c>
       <c r="I29" t="n">
-        <v>10.55984510710406</v>
+        <v>10.55984328127774</v>
       </c>
       <c r="J29" t="n">
-        <v>18.54338552687326</v>
+        <v>18.54338234049516</v>
       </c>
       <c r="K29" t="n">
-        <v>1.006808661251288</v>
+        <v>1.006860430300634</v>
       </c>
       <c r="L29" t="n">
-        <v>171.7417602539062</v>
+        <v>171.7417831420898</v>
       </c>
     </row>
     <row r="30">
@@ -1564,37 +1564,37 @@
         <v>1987</v>
       </c>
       <c r="B30" t="n">
-        <v>47.21923608892311</v>
+        <v>47.21923617244539</v>
       </c>
       <c r="C30" t="n">
-        <v>86.64040060798628</v>
+        <v>86.64040098253945</v>
       </c>
       <c r="D30" t="n">
-        <v>11.0255878482913</v>
+        <v>11.0255878728075</v>
       </c>
       <c r="E30" t="n">
-        <v>2.416850185195571</v>
+        <v>2.416849464185347</v>
       </c>
       <c r="F30" t="n">
-        <v>147.3020747303963</v>
+        <v>147.3020744919777</v>
       </c>
       <c r="G30" t="n">
-        <v>50.37517897344573</v>
+        <v>50.37517033329072</v>
       </c>
       <c r="H30" t="n">
-        <v>92.43109479236567</v>
+        <v>92.4310791750362</v>
       </c>
       <c r="I30" t="n">
-        <v>11.76249357569371</v>
+        <v>11.76249156358555</v>
       </c>
       <c r="J30" t="n">
-        <v>24.2900266278548</v>
+        <v>24.29002247318074</v>
       </c>
       <c r="K30" t="n">
-        <v>-2.768526787963445</v>
+        <v>-2.768473475513126</v>
       </c>
       <c r="L30" t="n">
-        <v>176.0902671813965</v>
+        <v>176.0902900695801</v>
       </c>
     </row>
     <row r="31">
@@ -1602,37 +1602,37 @@
         <v>1988</v>
       </c>
       <c r="B31" t="n">
-        <v>47.21132483714238</v>
+        <v>47.2113249892703</v>
       </c>
       <c r="C31" t="n">
-        <v>87.01961499282591</v>
+        <v>87.01961549439432</v>
       </c>
       <c r="D31" t="n">
-        <v>12.15502215842656</v>
+        <v>12.15502217497525</v>
       </c>
       <c r="E31" t="n">
-        <v>2.699312409932027</v>
+        <v>2.69931150126844</v>
       </c>
       <c r="F31" t="n">
-        <v>149.0852743983269</v>
+        <v>149.0852741599083</v>
       </c>
       <c r="G31" t="n">
-        <v>50.60811942325662</v>
+        <v>50.6081108548825</v>
       </c>
       <c r="H31" t="n">
-        <v>93.28056526509681</v>
+        <v>93.28054970900375</v>
       </c>
       <c r="I31" t="n">
-        <v>13.02956049439292</v>
+        <v>13.02955826413485</v>
       </c>
       <c r="J31" t="n">
-        <v>25.60700188420185</v>
+        <v>25.60699752345266</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.214211910698189</v>
+        <v>-2.214158307040151</v>
       </c>
       <c r="L31" t="n">
-        <v>180.31103515625</v>
+        <v>180.3110580444336</v>
       </c>
     </row>
     <row r="32">
@@ -1640,37 +1640,37 @@
         <v>1989</v>
       </c>
       <c r="B32" t="n">
-        <v>47.15041586592794</v>
+        <v>47.1504160092312</v>
       </c>
       <c r="C32" t="n">
-        <v>87.39631754391758</v>
+        <v>87.39631847451744</v>
       </c>
       <c r="D32" t="n">
-        <v>13.33482420418356</v>
+        <v>13.33482424629006</v>
       </c>
       <c r="E32" t="n">
-        <v>2.900228827773887</v>
+        <v>2.900227711764281</v>
       </c>
       <c r="F32" t="n">
         <v>150.781786441803</v>
       </c>
       <c r="G32" t="n">
-        <v>50.77795745377108</v>
+        <v>50.77794603049245</v>
       </c>
       <c r="H32" t="n">
-        <v>94.12019835583641</v>
+        <v>94.12017789819575</v>
       </c>
       <c r="I32" t="n">
-        <v>14.36074578894329</v>
+        <v>14.36074255997343</v>
       </c>
       <c r="J32" t="n">
-        <v>26.96121482248313</v>
+        <v>26.96120875029033</v>
       </c>
       <c r="K32" t="n">
-        <v>-1.808380886365935</v>
+        <v>-1.808343518981253</v>
       </c>
       <c r="L32" t="n">
-        <v>184.411735534668</v>
+        <v>184.4117317199707</v>
       </c>
     </row>
     <row r="33">
@@ -1678,37 +1678,37 @@
         <v>1990</v>
       </c>
       <c r="B33" t="n">
-        <v>47.04381743619871</v>
+        <v>47.0438175286198</v>
       </c>
       <c r="C33" t="n">
-        <v>87.78412782717889</v>
+        <v>87.78412849512125</v>
       </c>
       <c r="D33" t="n">
-        <v>14.56465822256371</v>
+        <v>14.56465825558866</v>
       </c>
       <c r="E33" t="n">
-        <v>3.017647237420661</v>
+        <v>3.017646384427621</v>
       </c>
       <c r="F33" t="n">
-        <v>152.410250723362</v>
+        <v>152.4102506637573</v>
       </c>
       <c r="G33" t="n">
-        <v>50.89105638313849</v>
+        <v>50.89104655436984</v>
       </c>
       <c r="H33" t="n">
-        <v>94.96310551022707</v>
+        <v>94.96308770567302</v>
       </c>
       <c r="I33" t="n">
-        <v>15.75575459646465</v>
+        <v>15.75575155827274</v>
       </c>
       <c r="J33" t="n">
-        <v>26.21096208457915</v>
+        <v>26.21095704005421</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5817474631883037</v>
+        <v>0.5817946233196416</v>
       </c>
       <c r="L33" t="n">
-        <v>188.4026260375977</v>
+        <v>188.4026374816895</v>
       </c>
     </row>
     <row r="34">
@@ -1716,37 +1716,37 @@
         <v>1991</v>
       </c>
       <c r="B34" t="n">
-        <v>46.89887867038714</v>
+        <v>46.89887879690077</v>
       </c>
       <c r="C34" t="n">
-        <v>88.19601900821053</v>
+        <v>88.19601942399223</v>
       </c>
       <c r="D34" t="n">
-        <v>15.8443079540689</v>
+        <v>15.84430800067465</v>
       </c>
       <c r="E34" t="n">
-        <v>3.050820364495287</v>
+        <v>3.050819715989562</v>
       </c>
       <c r="F34" t="n">
-        <v>153.9900259971619</v>
+        <v>153.9900259375572</v>
       </c>
       <c r="G34" t="n">
-        <v>50.95418879765953</v>
+        <v>50.95417904152382</v>
       </c>
       <c r="H34" t="n">
-        <v>95.8222612384952</v>
+        <v>95.82224308477042</v>
       </c>
       <c r="I34" t="n">
-        <v>17.21435313057179</v>
+        <v>17.21434983875938</v>
       </c>
       <c r="J34" t="n">
-        <v>23.16555132753959</v>
+        <v>23.16554689056057</v>
       </c>
       <c r="K34" t="n">
-        <v>5.14055102331201</v>
+        <v>5.140598106055744</v>
       </c>
       <c r="L34" t="n">
-        <v>192.2969055175781</v>
+        <v>192.2969169616699</v>
       </c>
     </row>
     <row r="35">
@@ -1754,37 +1754,37 @@
         <v>1992</v>
       </c>
       <c r="B35" t="n">
-        <v>46.72297499397698</v>
+        <v>46.72297511956931</v>
       </c>
       <c r="C35" t="n">
-        <v>88.64429151226896</v>
+        <v>88.64429231194913</v>
       </c>
       <c r="D35" t="n">
-        <v>17.17370767240946</v>
+        <v>17.17370771466286</v>
       </c>
       <c r="E35" t="n">
-        <v>3.000217816488501</v>
+        <v>3.000216789357943</v>
       </c>
       <c r="F35" t="n">
-        <v>155.5411919951439</v>
+        <v>155.5411919355392</v>
       </c>
       <c r="G35" t="n">
-        <v>50.97450274527767</v>
+        <v>50.97449459482113</v>
       </c>
       <c r="H35" t="n">
-        <v>96.7104231189867</v>
+        <v>96.71040826817212</v>
       </c>
       <c r="I35" t="n">
-        <v>18.73641841099977</v>
+        <v>18.7364154109155</v>
       </c>
       <c r="J35" t="n">
-        <v>21.82741152416063</v>
+        <v>21.82740803276936</v>
       </c>
       <c r="K35" t="n">
-        <v>7.861912382948294</v>
+        <v>7.861968578575798</v>
       </c>
       <c r="L35" t="n">
-        <v>196.110668182373</v>
+        <v>196.1106948852539</v>
       </c>
     </row>
     <row r="36">
@@ -1792,37 +1792,37 @@
         <v>1993</v>
       </c>
       <c r="B36" t="n">
-        <v>46.52349552113176</v>
+        <v>46.52349561792156</v>
       </c>
       <c r="C36" t="n">
-        <v>89.1405538766796</v>
+        <v>89.1405545148948</v>
       </c>
       <c r="D36" t="n">
-        <v>18.55297321814709</v>
+        <v>18.55297326911752</v>
       </c>
       <c r="E36" t="n">
-        <v>2.867525440167192</v>
+        <v>2.867524415773168</v>
       </c>
       <c r="F36" t="n">
-        <v>157.0845480561256</v>
+        <v>157.0845478177071</v>
       </c>
       <c r="G36" t="n">
-        <v>50.95954843643019</v>
+        <v>50.95954030496183</v>
       </c>
       <c r="H36" t="n">
-        <v>97.64017776492226</v>
+        <v>97.64016268069429</v>
       </c>
       <c r="I36" t="n">
-        <v>20.32201421581745</v>
+        <v>20.32201098664374</v>
       </c>
       <c r="J36" t="n">
-        <v>18.8706215966307</v>
+        <v>18.87061858800287</v>
       </c>
       <c r="K36" t="n">
-        <v>12.07108708287911</v>
+        <v>12.07114323925782</v>
       </c>
       <c r="L36" t="n">
-        <v>199.8634490966797</v>
+        <v>199.8634757995605</v>
       </c>
     </row>
     <row r="37">
@@ -1830,37 +1830,37 @@
         <v>1994</v>
       </c>
       <c r="B37" t="n">
-        <v>46.30783275710031</v>
+        <v>46.30783284493209</v>
       </c>
       <c r="C37" t="n">
-        <v>89.69570816598652</v>
+        <v>89.69570884292314</v>
       </c>
       <c r="D37" t="n">
-        <v>19.98243328271733</v>
+        <v>19.98243332698847</v>
       </c>
       <c r="E37" t="n">
-        <v>2.655640648531637</v>
+        <v>2.65563977988743</v>
       </c>
       <c r="F37" t="n">
-        <v>158.6416148543358</v>
+        <v>158.6416147947311</v>
       </c>
       <c r="G37" t="n">
-        <v>50.91724775335254</v>
+        <v>50.91723771336931</v>
       </c>
       <c r="H37" t="n">
-        <v>98.62388980835391</v>
+        <v>98.62387091872074</v>
       </c>
       <c r="I37" t="n">
-        <v>21.97145591994806</v>
+        <v>21.97145159456916</v>
       </c>
       <c r="J37" t="n">
-        <v>23.32396793769812</v>
+        <v>23.32396335534597</v>
       </c>
       <c r="K37" t="n">
-        <v>8.741670392170811</v>
+        <v>8.741715858912805</v>
       </c>
       <c r="L37" t="n">
-        <v>203.5782318115234</v>
+        <v>203.578239440918</v>
       </c>
     </row>
     <row r="38">
@@ -1868,37 +1868,37 @@
         <v>1995</v>
       </c>
       <c r="B38" t="n">
-        <v>46.08337498408688</v>
+        <v>46.08337507904574</v>
       </c>
       <c r="C38" t="n">
-        <v>90.31994633891532</v>
+        <v>90.31994723867567</v>
       </c>
       <c r="D38" t="n">
-        <v>21.46266013691243</v>
+        <v>21.462660176287</v>
       </c>
       <c r="E38" t="n">
-        <v>2.368650912941511</v>
+        <v>2.368649640429162</v>
       </c>
       <c r="F38" t="n">
-        <v>160.2346323728561</v>
+        <v>160.2346321344376</v>
       </c>
       <c r="G38" t="n">
-        <v>50.85590525765208</v>
+        <v>50.85589530430845</v>
       </c>
       <c r="H38" t="n">
-        <v>99.67374645355765</v>
+        <v>99.67372773330878</v>
       </c>
       <c r="I38" t="n">
-        <v>23.68539654217845</v>
+        <v>23.68539190120022</v>
       </c>
       <c r="J38" t="n">
-        <v>25.35176720186253</v>
+        <v>25.35176224375208</v>
       </c>
       <c r="K38" t="n">
-        <v>7.715037266917239</v>
+        <v>7.715083168992983</v>
       </c>
       <c r="L38" t="n">
-        <v>207.281852722168</v>
+        <v>207.2818603515625</v>
       </c>
     </row>
     <row r="39">
@@ -1906,37 +1906,37 @@
         <v>1996</v>
       </c>
       <c r="B39" t="n">
-        <v>45.85750131437068</v>
+        <v>45.85750146027815</v>
       </c>
       <c r="C39" t="n">
-        <v>91.02275403993298</v>
+        <v>91.02275489945789</v>
       </c>
       <c r="D39" t="n">
-        <v>22.99450030601682</v>
+        <v>22.99450036261636</v>
       </c>
       <c r="E39" t="n">
-        <v>2.011805554603384</v>
+        <v>2.011804671385399</v>
       </c>
       <c r="F39" t="n">
-        <v>161.8865612149239</v>
+        <v>161.8865613937378</v>
       </c>
       <c r="G39" t="n">
-        <v>50.78419497134371</v>
+        <v>50.78418247357511</v>
       </c>
       <c r="H39" t="n">
-        <v>100.8017697323607</v>
+        <v>100.8017455566262</v>
       </c>
       <c r="I39" t="n">
-        <v>25.46491093799375</v>
+        <v>25.46490465284751</v>
       </c>
       <c r="J39" t="n">
-        <v>29.04011999654393</v>
+        <v>29.04011284852612</v>
       </c>
       <c r="K39" t="n">
-        <v>4.91416946185559</v>
+        <v>4.914200495036379</v>
       </c>
       <c r="L39" t="n">
-        <v>211.0051651000977</v>
+        <v>211.0051460266113</v>
       </c>
     </row>
     <row r="40">
@@ -1944,37 +1944,37 @@
         <v>1997</v>
       </c>
       <c r="B40" t="n">
-        <v>45.63757956876405</v>
+        <v>45.63757964361544</v>
       </c>
       <c r="C40" t="n">
-        <v>91.81291831564671</v>
+        <v>91.8129190012626</v>
       </c>
       <c r="D40" t="n">
-        <v>24.57910415132275</v>
+        <v>24.57910420716277</v>
       </c>
       <c r="E40" t="n">
-        <v>1.591480985430422</v>
+        <v>1.591480109518486</v>
       </c>
       <c r="F40" t="n">
-        <v>163.6210830211639</v>
+        <v>163.6210829615593</v>
       </c>
       <c r="G40" t="n">
-        <v>50.71115767968569</v>
+        <v>50.71114780274</v>
       </c>
       <c r="H40" t="n">
-        <v>102.0198577955162</v>
+        <v>102.0198385197532</v>
       </c>
       <c r="I40" t="n">
-        <v>27.31158922144609</v>
+        <v>27.31158391925704</v>
       </c>
       <c r="J40" t="n">
-        <v>31.36366317287095</v>
+        <v>31.36365709412076</v>
       </c>
       <c r="K40" t="n">
-        <v>3.377019178820948</v>
+        <v>3.377067341863377</v>
       </c>
       <c r="L40" t="n">
-        <v>214.7832870483398</v>
+        <v>214.7832946777344</v>
       </c>
     </row>
     <row r="41">
@@ -1982,37 +1982,37 @@
         <v>1998</v>
       </c>
       <c r="B41" t="n">
-        <v>45.43096690292832</v>
+        <v>45.43096703704059</v>
       </c>
       <c r="C41" t="n">
-        <v>92.69854649715796</v>
+        <v>92.69854697763428</v>
       </c>
       <c r="D41" t="n">
-        <v>26.21795454777277</v>
+        <v>26.21795462401298</v>
       </c>
       <c r="E41" t="n">
-        <v>1.115130316358332</v>
+        <v>1.115129804343468</v>
       </c>
       <c r="F41" t="n">
-        <v>165.4625982642174</v>
+        <v>165.4625984430313</v>
       </c>
       <c r="G41" t="n">
-        <v>50.6462009939</v>
+        <v>50.64619121434971</v>
       </c>
       <c r="H41" t="n">
-        <v>103.3398480769476</v>
+        <v>103.3398283530676</v>
       </c>
       <c r="I41" t="n">
-        <v>29.22763670235349</v>
+        <v>29.22763105734239</v>
       </c>
       <c r="J41" t="n">
-        <v>30.13863683466293</v>
+        <v>30.13863101991748</v>
       </c>
       <c r="K41" t="n">
-        <v>5.303526848923102</v>
+        <v>5.303575441504478</v>
       </c>
       <c r="L41" t="n">
-        <v>218.6558494567871</v>
+        <v>218.6558570861816</v>
       </c>
     </row>
     <row r="42">
@@ -2020,37 +2020,37 @@
         <v>1999</v>
       </c>
       <c r="B42" t="n">
-        <v>45.24501441766186</v>
+        <v>45.2450145030134</v>
       </c>
       <c r="C42" t="n">
-        <v>93.68708614557811</v>
+        <v>93.68708653160799</v>
       </c>
       <c r="D42" t="n">
-        <v>27.91289431166486</v>
+        <v>27.91289435617343</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5912344136731917</v>
+        <v>0.5912335997599811</v>
       </c>
       <c r="F42" t="n">
-        <v>167.436229288578</v>
+        <v>167.4362289905548</v>
       </c>
       <c r="G42" t="n">
-        <v>50.59910861118423</v>
+        <v>50.59910032615075</v>
       </c>
       <c r="H42" t="n">
-        <v>104.7736001050976</v>
+        <v>104.7735831836649</v>
       </c>
       <c r="I42" t="n">
-        <v>31.21598233764966</v>
+        <v>31.2159772172733</v>
       </c>
       <c r="J42" t="n">
-        <v>31.96308885409509</v>
+        <v>31.96308362587679</v>
       </c>
       <c r="K42" t="n">
-        <v>4.115517455254615</v>
+        <v>4.115575898499102</v>
       </c>
       <c r="L42" t="n">
-        <v>222.6672973632812</v>
+        <v>222.6673202514648</v>
       </c>
     </row>
     <row r="43">
@@ -2058,37 +2058,37 @@
         <v>2000</v>
       </c>
       <c r="B43" t="n">
-        <v>45.08707390593511</v>
+        <v>45.08707404184098</v>
       </c>
       <c r="C43" t="n">
-        <v>94.7853525488897</v>
+        <v>94.78535324593956</v>
       </c>
       <c r="D43" t="n">
-        <v>29.66615185453</v>
+        <v>29.66615192785151</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0292389614009565</v>
+        <v>0.02923799551908246</v>
       </c>
       <c r="F43" t="n">
-        <v>169.5678172707558</v>
+        <v>169.5678172111511</v>
       </c>
       <c r="G43" t="n">
-        <v>50.58003863828593</v>
+        <v>50.5800286380624</v>
       </c>
       <c r="H43" t="n">
-        <v>106.3330657533599</v>
+        <v>106.3330451916087</v>
       </c>
       <c r="I43" t="n">
-        <v>33.28038342390328</v>
+        <v>33.28037682594697</v>
       </c>
       <c r="J43" t="n">
-        <v>37.59947881273172</v>
+        <v>37.59947136222841</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.9259355308687347</v>
+        <v>-0.9258871057371181</v>
       </c>
       <c r="L43" t="n">
-        <v>226.8670310974121</v>
+        <v>226.8670349121094</v>
       </c>
     </row>
     <row r="44">
@@ -2096,37 +2096,37 @@
         <v>2001</v>
       </c>
       <c r="B44" t="n">
-        <v>44.96450906380728</v>
+        <v>44.96450911028789</v>
       </c>
       <c r="C44" t="n">
-        <v>95.99955694834173</v>
+        <v>95.99955708415121</v>
       </c>
       <c r="D44" t="n">
-        <v>31.4803651494206</v>
+        <v>31.48036520348533</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.5605064388981091</v>
+        <v>-0.560506973276155</v>
       </c>
       <c r="F44" t="n">
-        <v>171.8839247226715</v>
+        <v>171.8839244246483</v>
       </c>
       <c r="G44" t="n">
-        <v>50.59954091891852</v>
+        <v>50.59953511577988</v>
       </c>
       <c r="H44" t="n">
-        <v>108.0303913273587</v>
+        <v>108.0303789787715</v>
       </c>
       <c r="I44" t="n">
-        <v>35.4255402246291</v>
+        <v>35.42553618598001</v>
       </c>
       <c r="J44" t="n">
-        <v>32.95084539616653</v>
+        <v>32.95084165044469</v>
       </c>
       <c r="K44" t="n">
-        <v>4.303355442253348</v>
+        <v>4.303430969414549</v>
       </c>
       <c r="L44" t="n">
-        <v>231.3096733093262</v>
+        <v>231.3097229003906</v>
       </c>
     </row>
     <row r="45">
@@ -2134,37 +2134,37 @@
         <v>2002</v>
       </c>
       <c r="B45" t="n">
-        <v>44.88470918285329</v>
+        <v>44.88470928911573</v>
       </c>
       <c r="C45" t="n">
-        <v>97.33533345779482</v>
+        <v>97.33533364785789</v>
       </c>
       <c r="D45" t="n">
-        <v>33.35860335811295</v>
+        <v>33.35860343296061</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.166812116429213</v>
+        <v>-1.166812547207037</v>
       </c>
       <c r="F45" t="n">
-        <v>174.4118338823318</v>
+        <v>174.4118338227272</v>
       </c>
       <c r="G45" t="n">
-        <v>50.66859302930884</v>
+        <v>50.66858447884224</v>
       </c>
       <c r="H45" t="n">
-        <v>109.8780517492831</v>
+        <v>109.8780331614786</v>
       </c>
       <c r="I45" t="n">
-        <v>37.65722287945798</v>
+        <v>37.65721652003732</v>
       </c>
       <c r="J45" t="n">
-        <v>38.95059335418861</v>
+        <v>38.950586788378</v>
       </c>
       <c r="K45" t="n">
-        <v>-1.098991499299032</v>
+        <v>-1.098932362310336</v>
       </c>
       <c r="L45" t="n">
-        <v>236.0554695129395</v>
+        <v>236.0554885864258</v>
       </c>
     </row>
     <row r="46">
@@ -2172,37 +2172,37 @@
         <v>2003</v>
       </c>
       <c r="B46" t="n">
-        <v>44.85510739923663</v>
+        <v>44.8551074895655</v>
       </c>
       <c r="C46" t="n">
-        <v>98.79776953323213</v>
+        <v>98.797769715811</v>
       </c>
       <c r="D46" t="n">
-        <v>35.30438607837005</v>
+        <v>35.30438614849019</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.777715522149379</v>
+        <v>-1.777715984386553</v>
       </c>
       <c r="F46" t="n">
-        <v>177.1795474886894</v>
+        <v>177.1795473694801</v>
       </c>
       <c r="G46" t="n">
-        <v>50.79860683452164</v>
+        <v>50.79859794635665</v>
       </c>
       <c r="H46" t="n">
-        <v>111.8889094607708</v>
+        <v>111.8888898651668</v>
       </c>
       <c r="I46" t="n">
-        <v>39.98237284255842</v>
+        <v>39.98236584579072</v>
       </c>
       <c r="J46" t="n">
-        <v>39.95981713161803</v>
+        <v>39.95981015595012</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.459437257017768</v>
+        <v>-1.45937954202406</v>
       </c>
       <c r="L46" t="n">
-        <v>241.1702690124512</v>
+        <v>241.1702842712402</v>
       </c>
     </row>
     <row r="47">
@@ -2210,37 +2210,37 @@
         <v>2004</v>
       </c>
       <c r="B47" t="n">
-        <v>44.88320156873854</v>
+        <v>44.88320166406893</v>
       </c>
       <c r="C47" t="n">
-        <v>100.3914271003439</v>
+        <v>100.3914278183487</v>
       </c>
       <c r="D47" t="n">
-        <v>37.32169996645909</v>
+        <v>37.32170005308208</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.380539913503313</v>
+        <v>-2.380540873066124</v>
       </c>
       <c r="F47" t="n">
-        <v>180.2157887220383</v>
+        <v>180.2157886624336</v>
       </c>
       <c r="G47" t="n">
-        <v>51.00148512463794</v>
+        <v>51.0014759068821</v>
       </c>
       <c r="H47" t="n">
-        <v>114.0763514398126</v>
+        <v>114.0763313958035</v>
       </c>
       <c r="I47" t="n">
-        <v>42.40923238843412</v>
+        <v>42.40922473195478</v>
       </c>
       <c r="J47" t="n">
-        <v>45.24378226596234</v>
+        <v>45.24377410726301</v>
       </c>
       <c r="K47" t="n">
-        <v>-6.004899070409479</v>
+        <v>-6.004842549374075</v>
       </c>
       <c r="L47" t="n">
-        <v>246.7259521484375</v>
+        <v>246.7259635925293</v>
       </c>
     </row>
     <row r="48">
@@ -2248,37 +2248,37 @@
         <v>2005</v>
       </c>
       <c r="B48" t="n">
-        <v>44.9765785763455</v>
+        <v>44.9765786101261</v>
       </c>
       <c r="C48" t="n">
-        <v>102.1203629466639</v>
+        <v>102.1203633612473</v>
       </c>
       <c r="D48" t="n">
-        <v>39.41501241175467</v>
+        <v>39.41501249564586</v>
       </c>
       <c r="E48" t="n">
-        <v>-2.961952969168827</v>
+        <v>-2.961953799447251</v>
       </c>
       <c r="F48" t="n">
-        <v>183.5500009655952</v>
+        <v>183.550000667572</v>
       </c>
       <c r="G48" t="n">
-        <v>51.28967191821799</v>
+        <v>51.28966130971506</v>
       </c>
       <c r="H48" t="n">
-        <v>116.4543875389047</v>
+        <v>116.4543638373636</v>
       </c>
       <c r="I48" t="n">
-        <v>44.94746197334355</v>
+        <v>44.94745273853982</v>
       </c>
       <c r="J48" t="n">
-        <v>49.85462098977081</v>
+        <v>49.85461074142632</v>
       </c>
       <c r="K48" t="n">
-        <v>-9.745464167063204</v>
+        <v>-9.745414188568233</v>
       </c>
       <c r="L48" t="n">
-        <v>252.8006782531738</v>
+        <v>252.8006744384766</v>
       </c>
     </row>
     <row r="49">
@@ -2286,37 +2286,37 @@
         <v>2006</v>
       </c>
       <c r="B49" t="n">
-        <v>45.14294219361776</v>
+        <v>45.14294227825372</v>
       </c>
       <c r="C49" t="n">
-        <v>103.9881365441895</v>
+        <v>103.9881370162377</v>
       </c>
       <c r="D49" t="n">
-        <v>41.58928215604065</v>
+        <v>41.58928224762165</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.508013565185024</v>
+        <v>-3.508014273054847</v>
       </c>
       <c r="F49" t="n">
-        <v>187.2123473286629</v>
+        <v>187.2123472690582</v>
       </c>
       <c r="G49" t="n">
-        <v>51.67620418911418</v>
+        <v>51.67619595702629</v>
       </c>
       <c r="H49" t="n">
-        <v>119.0377037069319</v>
+        <v>119.0376850612554</v>
       </c>
       <c r="I49" t="n">
-        <v>47.60824466328397</v>
+        <v>47.60823709480438</v>
       </c>
       <c r="J49" t="n">
-        <v>52.73855015938382</v>
+        <v>52.73854179140017</v>
       </c>
       <c r="K49" t="n">
-        <v>-11.58168736837205</v>
+        <v>-11.58162166596088</v>
       </c>
       <c r="L49" t="n">
-        <v>259.4790153503418</v>
+        <v>259.4790382385254</v>
       </c>
     </row>
     <row r="50">
@@ -2324,37 +2324,37 @@
         <v>2007</v>
       </c>
       <c r="B50" t="n">
-        <v>45.39014398459341</v>
+        <v>45.39014418610424</v>
       </c>
       <c r="C50" t="n">
-        <v>105.9978102634778</v>
+        <v>105.997811092623</v>
       </c>
       <c r="D50" t="n">
-        <v>43.84996682640435</v>
+        <v>43.84996697959906</v>
       </c>
       <c r="E50" t="n">
-        <v>-4.004208937730112</v>
+        <v>-4.004209763952957</v>
       </c>
       <c r="F50" t="n">
-        <v>191.2337121367455</v>
+        <v>191.2337124943733</v>
       </c>
       <c r="G50" t="n">
-        <v>52.17479533071995</v>
+        <v>52.17478582924734</v>
       </c>
       <c r="H50" t="n">
-        <v>121.841738547439</v>
+        <v>121.8417167711863</v>
       </c>
       <c r="I50" t="n">
-        <v>50.40440156354354</v>
+        <v>50.40439233679624</v>
       </c>
       <c r="J50" t="n">
-        <v>56.01882190886992</v>
+        <v>56.01881164604652</v>
       </c>
       <c r="K50" t="n">
-        <v>-13.58746624339464</v>
+        <v>-13.58740784670416</v>
       </c>
       <c r="L50" t="n">
-        <v>266.8522911071777</v>
+        <v>266.8522987365723</v>
       </c>
     </row>
     <row r="51">
@@ -2362,34 +2362,34 @@
         <v>2008</v>
       </c>
       <c r="B51" t="n">
-        <v>45.72621660561527</v>
+        <v>45.72621670625968</v>
       </c>
       <c r="C51" t="n">
-        <v>108.1519377733008</v>
+        <v>108.1519385591872</v>
       </c>
       <c r="D51" t="n">
-        <v>46.2030272394938</v>
+        <v>46.20302736994465</v>
       </c>
       <c r="E51" t="n">
-        <v>-4.435482057767636</v>
+        <v>-4.435482955539989</v>
       </c>
       <c r="F51" t="n">
-        <v>195.6456995606422</v>
+        <v>195.6456996798515</v>
       </c>
       <c r="G51" t="n">
-        <v>52.79991986775892</v>
+        <v>52.79990957919185</v>
       </c>
       <c r="H51" t="n">
-        <v>124.8827056308849</v>
+        <v>124.8826819288916</v>
       </c>
       <c r="I51" t="n">
-        <v>53.35049162133343</v>
+        <v>53.35048125868779</v>
       </c>
       <c r="J51" t="n">
-        <v>54.65773791971473</v>
+        <v>54.65772730399596</v>
       </c>
       <c r="K51" t="n">
-        <v>-10.67203713808066</v>
+        <v>-10.67198216915585</v>
       </c>
       <c r="L51" t="n">
         <v>275.0188179016113</v>
@@ -2400,37 +2400,37 @@
         <v>2009</v>
       </c>
       <c r="B52" t="n">
-        <v>46.15940932655764</v>
+        <v>46.15940946721221</v>
       </c>
       <c r="C52" t="n">
-        <v>110.4525340745549</v>
+        <v>110.4525347388054</v>
       </c>
       <c r="D52" t="n">
-        <v>48.6549282288513</v>
+        <v>48.65492836761167</v>
       </c>
       <c r="E52" t="n">
-        <v>-4.786237775097831</v>
+        <v>-4.786238599553961</v>
       </c>
       <c r="F52" t="n">
-        <v>200.480633854866</v>
+        <v>200.4806339740753</v>
       </c>
       <c r="G52" t="n">
-        <v>53.56690930589938</v>
+        <v>53.56690293640372</v>
       </c>
       <c r="H52" t="n">
-        <v>128.1775690308574</v>
+        <v>128.1775541698818</v>
       </c>
       <c r="I52" t="n">
-        <v>56.46290032182886</v>
+        <v>56.46289359695609</v>
       </c>
       <c r="J52" t="n">
-        <v>57.28431926630478</v>
+        <v>57.28431244166126</v>
       </c>
       <c r="K52" t="n">
-        <v>-11.40759910897246</v>
+        <v>-11.40751855261774</v>
       </c>
       <c r="L52" t="n">
-        <v>284.084098815918</v>
+        <v>284.0841445922852</v>
       </c>
     </row>
     <row r="53">
@@ -2438,37 +2438,37 @@
         <v>2010</v>
       </c>
       <c r="B53" t="n">
-        <v>46.69822640111115</v>
+        <v>46.69822645373652</v>
       </c>
       <c r="C53" t="n">
-        <v>112.901032822723</v>
+        <v>112.9010332729265</v>
       </c>
       <c r="D53" t="n">
-        <v>51.21263677981118</v>
+        <v>51.21263688043086</v>
       </c>
       <c r="E53" t="n">
-        <v>-5.04033581153714</v>
+        <v>-5.040336713008948</v>
       </c>
       <c r="F53" t="n">
-        <v>205.7715601921082</v>
+        <v>205.7715598940849</v>
       </c>
       <c r="G53" t="n">
-        <v>54.49207165358691</v>
+        <v>54.4920648054669</v>
       </c>
       <c r="H53" t="n">
-        <v>131.7440006713703</v>
+        <v>131.7439844917327</v>
       </c>
       <c r="I53" t="n">
-        <v>59.7599285464124</v>
+        <v>59.75992108633901</v>
       </c>
       <c r="J53" t="n">
-        <v>62.2675685226725</v>
+        <v>62.26756075050995</v>
       </c>
       <c r="K53" t="n">
-        <v>-14.10242513745027</v>
+        <v>-14.10234491578684</v>
       </c>
       <c r="L53" t="n">
-        <v>294.1611442565918</v>
+        <v>294.1611862182617</v>
       </c>
     </row>
     <row r="54">
@@ -2476,37 +2476,37 @@
         <v>2011</v>
       </c>
       <c r="B54" t="n">
-        <v>47.35146548510519</v>
+        <v>47.35146561706235</v>
       </c>
       <c r="C54" t="n">
-        <v>115.4982241406916</v>
+        <v>115.4982249550155</v>
       </c>
       <c r="D54" t="n">
-        <v>53.88361648415351</v>
+        <v>53.88361662556738</v>
       </c>
       <c r="E54" t="n">
-        <v>-5.181063354060399</v>
+        <v>-5.181064322546007</v>
       </c>
       <c r="F54" t="n">
-        <v>211.5522427558899</v>
+        <v>211.5522428750992</v>
       </c>
       <c r="G54" t="n">
-        <v>55.59280879549629</v>
+        <v>55.59280155929328</v>
       </c>
       <c r="H54" t="n">
-        <v>135.6002528135604</v>
+        <v>135.6002357414071</v>
       </c>
       <c r="I54" t="n">
-        <v>63.26185594732377</v>
+        <v>63.26184770261489</v>
       </c>
       <c r="J54" t="n">
-        <v>62.90509771769028</v>
+        <v>62.90508952879848</v>
       </c>
       <c r="K54" t="n">
-        <v>-11.9893869171371</v>
+        <v>-11.98930802820755</v>
       </c>
       <c r="L54" t="n">
-        <v>305.3706283569336</v>
+        <v>305.3706665039062</v>
       </c>
     </row>
     <row r="55">
@@ -2514,37 +2514,37 @@
         <v>2012</v>
       </c>
       <c r="B55" t="n">
-        <v>48.12825883009775</v>
+        <v>48.12825890012375</v>
       </c>
       <c r="C55" t="n">
-        <v>118.2441722632614</v>
+        <v>118.2441727707378</v>
       </c>
       <c r="D55" t="n">
-        <v>56.67581979337152</v>
+        <v>56.67581991792956</v>
       </c>
       <c r="E55" t="n">
-        <v>-5.19108310633132</v>
+        <v>-5.191083927601071</v>
       </c>
       <c r="F55" t="n">
-        <v>217.8571677803993</v>
+        <v>217.85716766119</v>
       </c>
       <c r="G55" t="n">
-        <v>56.88776379849961</v>
+        <v>56.88775477016183</v>
       </c>
       <c r="H55" t="n">
-        <v>139.7650092850419</v>
+        <v>139.764987500204</v>
       </c>
       <c r="I55" t="n">
-        <v>66.99100960360049</v>
+        <v>66.9909990215902</v>
       </c>
       <c r="J55" t="n">
-        <v>66.48748738707059</v>
+        <v>66.48747689120891</v>
       </c>
       <c r="K55" t="n">
-        <v>-12.29004158910519</v>
+        <v>-12.28997062457116</v>
       </c>
       <c r="L55" t="n">
-        <v>317.8412284851074</v>
+        <v>317.8412475585938</v>
       </c>
     </row>
     <row r="56">
@@ -2552,37 +2552,37 @@
         <v>2013</v>
       </c>
       <c r="B56" t="n">
-        <v>49.03811291997128</v>
+        <v>49.038113012598</v>
       </c>
       <c r="C56" t="n">
-        <v>121.1381110380687</v>
+        <v>121.1381116086311</v>
       </c>
       <c r="D56" t="n">
-        <v>59.59767700768653</v>
+        <v>59.59767716422369</v>
       </c>
       <c r="E56" t="n">
-        <v>-5.05236051467665</v>
+        <v>-5.052361215193663</v>
       </c>
       <c r="F56" t="n">
-        <v>224.7215404510498</v>
+        <v>224.7215405702591</v>
       </c>
       <c r="G56" t="n">
-        <v>58.3969642683777</v>
+        <v>58.39695476797988</v>
       </c>
       <c r="H56" t="n">
-        <v>144.2571404281723</v>
+        <v>144.2571173664528</v>
       </c>
       <c r="I56" t="n">
-        <v>70.97180555002123</v>
+        <v>70.97179405622185</v>
       </c>
       <c r="J56" t="n">
-        <v>69.60201085629782</v>
+        <v>69.60199959096927</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.51812419735148</v>
+        <v>-11.51805361731716</v>
       </c>
       <c r="L56" t="n">
-        <v>331.7097969055176</v>
+        <v>331.7098121643066</v>
       </c>
     </row>
     <row r="57">
@@ -2590,37 +2590,37 @@
         <v>2014</v>
       </c>
       <c r="B57" t="n">
-        <v>50.09094967665374</v>
+        <v>50.09094974876757</v>
       </c>
       <c r="C57" t="n">
-        <v>124.1783178351851</v>
+        <v>124.1783183620424</v>
       </c>
       <c r="D57" t="n">
-        <v>62.65808344851043</v>
+        <v>62.65808358684659</v>
       </c>
       <c r="E57" t="n">
-        <v>-4.746063850497485</v>
+        <v>-4.746064707014042</v>
       </c>
       <c r="F57" t="n">
-        <v>232.1812871098518</v>
+        <v>232.1812869906425</v>
       </c>
       <c r="G57" t="n">
-        <v>60.14199227157199</v>
+        <v>60.14198098918612</v>
       </c>
       <c r="H57" t="n">
-        <v>149.0954250168935</v>
+        <v>149.095397465144</v>
       </c>
       <c r="I57" t="n">
-        <v>75.23079508049703</v>
+        <v>75.23078102530246</v>
       </c>
       <c r="J57" t="n">
-        <v>71.82229948140503</v>
+        <v>71.82228606683194</v>
       </c>
       <c r="K57" t="n">
-        <v>-9.168815378199618</v>
+        <v>-9.168752888993815</v>
       </c>
       <c r="L57" t="n">
-        <v>347.121696472168</v>
+        <v>347.1216926574707</v>
       </c>
     </row>
     <row r="58">
@@ -2628,37 +2628,37 @@
         <v>2015</v>
       </c>
       <c r="B58" t="n">
-        <v>51.29714537837557</v>
+        <v>51.29714549474991</v>
       </c>
       <c r="C58" t="n">
-        <v>127.3619610507244</v>
+        <v>127.3619615878275</v>
       </c>
       <c r="D58" t="n">
-        <v>65.86638414623286</v>
+        <v>65.86638428328378</v>
       </c>
       <c r="E58" t="n">
-        <v>-4.252437227268366</v>
+        <v>-4.252438137005988</v>
       </c>
       <c r="F58" t="n">
-        <v>240.2730533480644</v>
+        <v>240.2730532288551</v>
       </c>
       <c r="G58" t="n">
-        <v>62.14614621421309</v>
+        <v>62.14613574147637</v>
       </c>
       <c r="H58" t="n">
-        <v>154.2981582153271</v>
+        <v>154.2981325139798</v>
       </c>
       <c r="I58" t="n">
-        <v>79.79668087883253</v>
+        <v>79.79666741667214</v>
       </c>
       <c r="J58" t="n">
-        <v>75.05529831375557</v>
+        <v>75.05528566356671</v>
       </c>
       <c r="K58" t="n">
-        <v>-7.065345664364642</v>
+        <v>-7.065275748536806</v>
       </c>
       <c r="L58" t="n">
-        <v>364.2309379577637</v>
+        <v>364.2309455871582</v>
       </c>
     </row>
     <row r="59">
@@ -2666,37 +2666,37 @@
         <v>2016</v>
       </c>
       <c r="B59" t="n">
-        <v>52.66756960748666</v>
+        <v>52.6675696609789</v>
       </c>
       <c r="C59" t="n">
-        <v>130.6849221509881</v>
+        <v>130.6849231879666</v>
       </c>
       <c r="D59" t="n">
-        <v>69.2323573237624</v>
+        <v>69.23235743813787</v>
       </c>
       <c r="E59" t="n">
-        <v>-3.550642811065586</v>
+        <v>-3.550644373539654</v>
       </c>
       <c r="F59" t="n">
-        <v>249.0342062711716</v>
+        <v>249.0342059135437</v>
       </c>
       <c r="G59" t="n">
-        <v>64.43463167122547</v>
+        <v>64.43462058801195</v>
       </c>
       <c r="H59" t="n">
-        <v>159.8827302368004</v>
+        <v>159.8827038421124</v>
       </c>
       <c r="I59" t="n">
-        <v>84.70034742695204</v>
+        <v>84.7003329117945</v>
       </c>
       <c r="J59" t="n">
-        <v>77.11278085272201</v>
+        <v>77.1127676497385</v>
       </c>
       <c r="K59" t="n">
-        <v>-2.929947737748705</v>
+        <v>-2.929878727008912</v>
       </c>
       <c r="L59" t="n">
-        <v>383.2005424499512</v>
+        <v>383.2005462646484</v>
       </c>
     </row>
     <row r="60">
@@ -2704,37 +2704,37 @@
         <v>2017</v>
       </c>
       <c r="B60" t="n">
-        <v>54.21362075565683</v>
+        <v>54.21362091542401</v>
       </c>
       <c r="C60" t="n">
-        <v>134.1415888260336</v>
+        <v>134.141589947085</v>
       </c>
       <c r="D60" t="n">
-        <v>72.76619613184045</v>
+        <v>72.76619628130446</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.618573718043692</v>
+        <v>-2.618575207930924</v>
       </c>
       <c r="F60" t="n">
-        <v>258.5028319954872</v>
+        <v>258.5028319358826</v>
       </c>
       <c r="G60" t="n">
-        <v>67.03474407241391</v>
+        <v>67.03473088148573</v>
       </c>
       <c r="H60" t="n">
-        <v>165.8650898258233</v>
+        <v>165.8650580846769</v>
       </c>
       <c r="I60" t="n">
-        <v>89.97486732726713</v>
+        <v>89.97484954189511</v>
       </c>
       <c r="J60" t="n">
-        <v>82.84995121200141</v>
+        <v>82.84993485554266</v>
       </c>
       <c r="K60" t="n">
-        <v>-1.52191653662689</v>
+        <v>-1.521856536207778</v>
       </c>
       <c r="L60" t="n">
-        <v>404.2027359008789</v>
+        <v>404.2027168273926</v>
       </c>
     </row>
     <row r="61">
@@ -2742,37 +2742,37 @@
         <v>2018</v>
       </c>
       <c r="B61" t="n">
-        <v>55.94726059988243</v>
+        <v>55.94726069080294</v>
       </c>
       <c r="C61" t="n">
-        <v>137.7246155308829</v>
+        <v>137.724616016427</v>
       </c>
       <c r="D61" t="n">
-        <v>76.47848997840109</v>
+        <v>76.47849016686209</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.432627957616113</v>
+        <v>-1.432628603332425</v>
       </c>
       <c r="F61" t="n">
-        <v>268.7177381515503</v>
+        <v>268.7177382707596</v>
       </c>
       <c r="G61" t="n">
-        <v>69.9760612804931</v>
+        <v>69.97605089153669</v>
       </c>
       <c r="H61" t="n">
-        <v>172.2591246271255</v>
+        <v>172.2590993801261</v>
       </c>
       <c r="I61" t="n">
-        <v>95.65550563130553</v>
+        <v>95.65549151013178</v>
       </c>
       <c r="J61" t="n">
-        <v>85.64762057222845</v>
+        <v>85.64760793790349</v>
       </c>
       <c r="K61" t="n">
-        <v>3.880865897880682</v>
+        <v>3.880947362821487</v>
       </c>
       <c r="L61" t="n">
-        <v>427.4191780090332</v>
+        <v>427.4191970825195</v>
       </c>
     </row>
     <row r="62">
@@ -2780,37 +2780,37 @@
         <v>2019</v>
       </c>
       <c r="B62" t="n">
-        <v>57.88104439479543</v>
+        <v>57.88104457872164</v>
       </c>
       <c r="C62" t="n">
-        <v>141.4246493435941</v>
+        <v>141.4246502601944</v>
       </c>
       <c r="D62" t="n">
-        <v>80.3802048610433</v>
+        <v>80.38020505684683</v>
       </c>
       <c r="E62" t="n">
-        <v>0.03255343694797119</v>
+        <v>0.03255225982719878</v>
       </c>
       <c r="F62" t="n">
-        <v>279.7184520363808</v>
+        <v>279.7184521555901</v>
       </c>
       <c r="G62" t="n">
-        <v>73.29064617532954</v>
+        <v>73.29063523173173</v>
       </c>
       <c r="H62" t="n">
-        <v>179.075965955504</v>
+        <v>179.0759398078586</v>
       </c>
       <c r="I62" t="n">
-        <v>101.7797314400385</v>
+        <v>101.7797161670241</v>
       </c>
       <c r="J62" t="n">
-        <v>90.7706346077718</v>
+        <v>90.77062099639265</v>
       </c>
       <c r="K62" t="n">
-        <v>8.124300660467455</v>
+        <v>8.124381894893261</v>
       </c>
       <c r="L62" t="n">
-        <v>453.0412788391113</v>
+        <v>453.0412940979004</v>
       </c>
     </row>
     <row r="63">
@@ -2818,37 +2818,37 @@
         <v>2020</v>
       </c>
       <c r="B63" t="n">
-        <v>60.02814874943347</v>
+        <v>60.02814886962588</v>
       </c>
       <c r="C63" t="n">
-        <v>145.2300231007811</v>
+        <v>145.2300238359959</v>
       </c>
       <c r="D63" t="n">
-        <v>84.48266371735011</v>
+        <v>84.48266389144025</v>
       </c>
       <c r="E63" t="n">
-        <v>1.80438576117065</v>
+        <v>1.80438461246402</v>
       </c>
       <c r="F63" t="n">
-        <v>291.5452213287354</v>
+        <v>291.5452212095261</v>
       </c>
       <c r="G63" t="n">
-        <v>77.01324006851262</v>
+        <v>77.01322998404389</v>
       </c>
       <c r="H63" t="n">
-        <v>186.3231645024143</v>
+        <v>186.3231406745766</v>
       </c>
       <c r="I63" t="n">
-        <v>108.3872116338272</v>
+        <v>108.3871974474351</v>
       </c>
       <c r="J63" t="n">
-        <v>30.73895054459787</v>
+        <v>30.73894652353081</v>
       </c>
       <c r="K63" t="n">
-        <v>78.80779991934918</v>
+        <v>78.80788255669286</v>
       </c>
       <c r="L63" t="n">
-        <v>481.2703666687012</v>
+        <v>481.2703971862793</v>
       </c>
     </row>
   </sheetData>
